--- a/Data/data_2020-05-15_aw.xlsx
+++ b/Data/data_2020-05-15_aw.xlsx
@@ -13265,7 +13265,7 @@
         <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>783</v>
       </c>
       <c r="E18" t="s">
         <v>37</v>
@@ -13277,7 +13277,7 @@
         <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>783</v>
+        <v>37</v>
       </c>
       <c r="I18" t="s">
         <v>37</v>
@@ -13292,10 +13292,10 @@
         <v>37</v>
       </c>
       <c r="M18" t="s">
-        <v>37</v>
+        <v>469</v>
       </c>
       <c r="N18" t="s">
-        <v>469</v>
+        <v>37</v>
       </c>
       <c r="O18" t="s">
         <v>37</v>
@@ -13339,7 +13339,7 @@
         <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>785</v>
       </c>
       <c r="E19" t="s">
         <v>37</v>
@@ -13351,7 +13351,7 @@
         <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>785</v>
+        <v>37</v>
       </c>
       <c r="I19" t="s">
         <v>37</v>
@@ -13366,10 +13366,10 @@
         <v>37</v>
       </c>
       <c r="M19" t="s">
-        <v>37</v>
+        <v>786</v>
       </c>
       <c r="N19" t="s">
-        <v>786</v>
+        <v>37</v>
       </c>
       <c r="O19" t="s">
         <v>37</v>
@@ -13413,7 +13413,7 @@
         <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>788</v>
       </c>
       <c r="E20" t="s">
         <v>37</v>
@@ -13425,7 +13425,7 @@
         <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>788</v>
+        <v>37</v>
       </c>
       <c r="I20" t="s">
         <v>37</v>
@@ -13440,10 +13440,10 @@
         <v>37</v>
       </c>
       <c r="M20" t="s">
-        <v>37</v>
+        <v>789</v>
       </c>
       <c r="N20" t="s">
-        <v>789</v>
+        <v>37</v>
       </c>
       <c r="O20" t="s">
         <v>37</v>
